--- a/result_mo.xlsx
+++ b/result_mo.xlsx
@@ -22,15 +22,15 @@
     <t>Realme X2</t>
   </si>
   <si>
+    <t>OPPO F15</t>
+  </si>
+  <si>
     <t>Xiaomi Redmi Note 8 Pro</t>
   </si>
   <si>
     <t>Xiaomi Redmi Note 8</t>
   </si>
   <si>
-    <t>OPPO F15</t>
-  </si>
-  <si>
     <t>Realme XT</t>
   </si>
   <si>
@@ -40,49 +40,49 @@
     <t>Samsung Galaxy M30s</t>
   </si>
   <si>
+    <t>Realme 5 Pro</t>
+  </si>
+  <si>
     <t>OPPO A9 2020</t>
   </si>
   <si>
-    <t>Realme 5 Pro</t>
-  </si>
-  <si>
     <t>Vivo V17 Pro</t>
   </si>
   <si>
+    <t>Vivo S1</t>
+  </si>
+  <si>
+    <t>OnePlus 8 Pro</t>
+  </si>
+  <si>
     <t>OnePlus 7 Pro</t>
   </si>
   <si>
-    <t>Vivo S1</t>
-  </si>
-  <si>
-    <t>OnePlus 8 Pro</t>
-  </si>
-  <si>
     <t>Apple iPhone 11</t>
   </si>
   <si>
     <t>OPPO Reno 2</t>
   </si>
   <si>
+    <t>Vivo V17</t>
+  </si>
+  <si>
     <t>Xiaomi Redmi K30 Pro</t>
   </si>
   <si>
-    <t>Vivo V17</t>
-  </si>
-  <si>
     <t>OnePlus 7</t>
   </si>
   <si>
-    <t>Xiaomi Mi A3</t>
+    <t>Realme X2 8GB RAM</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Note 10 Lite</t>
   </si>
   <si>
     <t>Vivo S1 Pro</t>
   </si>
   <si>
     <t>Vivo V15</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Note 10 Lite</t>
   </si>
   <si>
     <t>Gionee Steel 5</t>
@@ -644,7 +644,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -759,7 +759,7 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:1">
